--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,48 +43,42 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -100,6 +94,9 @@
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -115,19 +112,25 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
@@ -136,91 +139,85 @@
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -586,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,16 +665,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.79375</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.559322033898305</v>
+        <v>0.55</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0.7931034482758621</v>
@@ -1147,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.544973544973545</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C13">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="D13">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>0.7926829268292683</v>
@@ -1197,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5387596899224806</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5234899328859061</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5098039215686274</v>
+        <v>0.44</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.76875</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4133333333333333</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7735849056603774</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3928571428571428</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7659574468085106</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3818181818181818</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3454545454545455</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1589,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1597,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2777777777777778</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1639,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2698412698412698</v>
+        <v>0.1501340482573726</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,37 +1694,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.160857908847185</v>
+        <v>0.0106280193236715</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>313</v>
+        <v>3072</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,87 +1744,63 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01160167579761521</v>
+        <v>0.008886810102899906</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F25">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3067</v>
+        <v>2119</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="L25">
+        <v>224</v>
+      </c>
+      <c r="M25">
+        <v>224</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K25">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.01074766355140187</v>
-      </c>
-      <c r="C26">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>0.12</v>
-      </c>
-      <c r="F26">
-        <v>0.88</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2117</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K26">
-        <v>0.6264705882352941</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L26">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1839,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5966101694915255</v>
+        <v>0.6108786610878661</v>
       </c>
       <c r="L27">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="M27">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1865,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5899581589958159</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="M28">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1891,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1917,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1943,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5531914893617021</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1969,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5280898876404494</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1995,15 +1968,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L33">
         <v>36</v>
@@ -2021,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4313725490196079</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2047,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4222222222222222</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2078,16 +2051,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.3835616438356164</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2099,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.359375</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2125,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.3205128205128205</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2151,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
